--- a/src/main/java/com/vapsTechnosoft/IVRM/data/AdmissionMasterGridHeader.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/AdmissionMasterGridHeader.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Masters_Admission" sheetId="1" r:id="rId1"/>
     <sheet name="Header_RowWise" sheetId="3" r:id="rId2"/>
+    <sheet name="AdmissionReport_ClmnHeader" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Caste Category Name</t>
   </si>
@@ -72,13 +73,73 @@
   </si>
   <si>
     <t>Fine Amount</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Total No. of Students on Roll</t>
+  </si>
+  <si>
+    <t>No. of Students Absentees</t>
+  </si>
+  <si>
+    <t>Total Boys</t>
+  </si>
+  <si>
+    <t>Total Girls</t>
+  </si>
+  <si>
+    <t>Total Students</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>Total Present Students</t>
+  </si>
+  <si>
+    <t>Total Absent Students</t>
+  </si>
+  <si>
+    <t>CategoryWise Attendance Report</t>
+  </si>
+  <si>
+    <t>SL. No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. of Students Attended</t>
+  </si>
+  <si>
+    <t>ClassWise Daily Attendance Report</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Roll No.</t>
+  </si>
+  <si>
+    <t>Admission No.</t>
+  </si>
+  <si>
+    <t>Class.</t>
+  </si>
+  <si>
+    <t>Section.</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +157,18 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
@@ -122,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,6 +210,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -546,4 +622,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>